--- a/Descrição de cado de uso - Prestador de Serviço.xlsx
+++ b/Descrição de cado de uso - Prestador de Serviço.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenriqueMacaduraArau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heckl\Desktop\dev-sis-02-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3954016-8813-4729-8146-B15C90FF1783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B23BB-5CC9-41DC-9B3D-08EA6D93A4EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{10E0717D-1ED4-48D6-BC75-4A327E9417D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{10E0717D-1ED4-48D6-BC75-4A327E9417D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O Prestador de Serviço insere dados inválidos no formulário. Redirecionado para a etapa 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O Prestador de Serviço insere dados já cadastrados. Redirecionado para a etapa 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1:</t>
     </r>
     <r>
@@ -91,7 +136,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> O Prestador de Serviço começa a preencher o formulário de cadastro.                            
+      <t xml:space="preserve"> O Prestador de Serviço acessa a página de cadastro.
 </t>
     </r>
     <r>
@@ -103,7 +148,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.1:</t>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Seleciona o tipo de cadastro expecífico para prestadores.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Começa a preencher o formulário de cadastro.                            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1:</t>
     </r>
     <r>
       <rPr>
@@ -125,7 +214,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.2:</t>
+      <t>3.2:</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +236,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2:</t>
+      <t>4:</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.1:</t>
+      <t>4.1:</t>
     </r>
     <r>
       <rPr>
@@ -191,7 +280,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3:</t>
+      <t>5:</t>
     </r>
     <r>
       <rPr>
@@ -202,51 +291,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Fim do caso de uso.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">O Prestador de Serviço insere dados inválidos no formulário. Redirecionado para a etapa 1.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O Prestador de Serviço insere dados já cadastrados. Redirecionado para a etapa 1</t>
     </r>
   </si>
 </sst>
@@ -820,7 +864,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E15" sqref="E15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1088,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="12"/>
       <c r="E15" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -1053,7 +1097,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -1074,7 +1118,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
       <c r="E17" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -1098,12 +1142,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D3:D18"/>
-    <mergeCell ref="A3:C4"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A17:C18"/>
@@ -1117,6 +1155,12 @@
     <mergeCell ref="E13:K14"/>
     <mergeCell ref="E15:K16"/>
     <mergeCell ref="E17:K18"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D3:D18"/>
+    <mergeCell ref="A3:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
